--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF66759-00C2-4631-A556-7A06CC7B90F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A027A57-3DDA-475C-99DE-1F661E2C7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="219">
   <si>
     <t>Week</t>
   </si>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>&lt;p style="color:red;"&gt;Final Project: Peer Review of Script&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>(slides/w1_intro.html)</t>
   </si>
 </sst>
 </file>
@@ -1658,9 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,7 +1675,8 @@
     <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -1767,6 +1771,9 @@
       </c>
       <c r="H2" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>29</v>
@@ -3895,7 +3902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4526,7 +4533,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A027A57-3DDA-475C-99DE-1F661E2C7551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4E1A9-15E3-4F34-8527-DA8A8C3A0FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
     <t>&lt;p style="color:red;"&gt;Final Project: Peer Review of Script&lt;/p&gt;</t>
   </si>
   <si>
-    <t>(slides/w1_intro.html)</t>
+    <t>./slides/w1_intro.html</t>
   </si>
 </sst>
 </file>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4E1A9-15E3-4F34-8527-DA8A8C3A0FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4F91FC-7183-4B24-8029-1953AF6DCFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="225">
   <si>
     <t>Week</t>
   </si>
@@ -691,6 +691,24 @@
   </si>
   <si>
     <t>./slides/w1_intro.html</t>
+  </si>
+  <si>
+    <t>./slides/w2_workflow.html</t>
+  </si>
+  <si>
+    <t>./slides/w3_ggplot2.html</t>
+  </si>
+  <si>
+    <t>./slides/w4_dplyr.html</t>
+  </si>
+  <si>
+    <t>./slides/w5_joins.html</t>
+  </si>
+  <si>
+    <t>./slides/w6_rmarkdown.html</t>
+  </si>
+  <si>
+    <t>./slides/w7_git.html</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1881,6 +1899,9 @@
       <c r="H6" s="26" t="s">
         <v>72</v>
       </c>
+      <c r="I6" s="26" t="s">
+        <v>219</v>
+      </c>
       <c r="J6" s="26" t="s">
         <v>29</v>
       </c>
@@ -2039,7 +2060,9 @@
       <c r="H11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2260,9 @@
       <c r="H16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="J16" s="26" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2447,9 @@
       <c r="H21" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="J21" s="7" t="s">
         <v>29</v>
       </c>
@@ -2560,6 +2587,9 @@
       <c r="H25" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="J25" s="26" t="s">
         <v>29</v>
       </c>
@@ -2658,6 +2688,9 @@
       </c>
       <c r="H29" s="17" t="s">
         <v>146</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>29</v>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4F91FC-7183-4B24-8029-1953AF6DCFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0026868-84F9-46AD-B2EB-ADC769583FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="247">
   <si>
     <t>Week</t>
   </si>
@@ -709,6 +709,72 @@
   </si>
   <si>
     <t>./slides/w7_git.html</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>key_link</t>
+  </si>
+  <si>
+    <t>Key HW_7</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-1_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-3_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-2_key.pdf</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-4_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-5_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-6_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-8_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-9_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/hw-10_key.html</t>
+  </si>
+  <si>
+    <t>./homeworks/</t>
+  </si>
+  <si>
+    <t>[Key HW_1]</t>
+  </si>
+  <si>
+    <t>[Key HW_2]</t>
+  </si>
+  <si>
+    <t>[Key HW_3]</t>
+  </si>
+  <si>
+    <t>[Key HW_4]</t>
+  </si>
+  <si>
+    <t>[Key HW_5]</t>
+  </si>
+  <si>
+    <t>[Key HW_6]</t>
+  </si>
+  <si>
+    <t>[Key HW_8]</t>
+  </si>
+  <si>
+    <t>[Key HW_9]</t>
+  </si>
+  <si>
+    <t>[Key HW_10]</t>
   </si>
 </sst>
 </file>
@@ -718,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +941,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1679,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3935,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3948,10 +4020,13 @@
     <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3976,8 +4051,14 @@
       <c r="H1" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="12" customFormat="1">
+      <c r="I1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -3993,11 +4074,20 @@
       <c r="E2" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="F2" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H2" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="12" customFormat="1">
+      <c r="I2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="12" customFormat="1">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -4013,12 +4103,20 @@
       <c r="E3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H3" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="12" customFormat="1">
+      <c r="I3" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="12" customFormat="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4034,12 +4132,20 @@
       <c r="E4" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H4" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
+      <c r="I4" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4055,12 +4161,20 @@
       <c r="E5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1">
+      <c r="I5" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4076,12 +4190,20 @@
       <c r="E6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H6" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1">
+      <c r="I6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4097,13 +4219,21 @@
       <c r="E7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1">
+      <c r="I7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4119,13 +4249,18 @@
       <c r="E8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1">
+      <c r="I8" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="12" customFormat="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4141,13 +4276,21 @@
       <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1">
+      <c r="I9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="12" customFormat="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4163,13 +4306,21 @@
       <c r="E10" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1">
+      <c r="I10" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4185,12 +4336,20 @@
       <c r="E11" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="H11" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1">
+      <c r="I11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -4216,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="12" customFormat="1">
+    <row r="13" spans="1:10" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -4242,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="12" customFormat="1">
+    <row r="14" spans="1:10" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -4268,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1">
+    <row r="15" spans="1:10" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4294,7 +4453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="12" customFormat="1">
+    <row r="16" spans="1:10" s="12" customFormat="1">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4552,6 +4711,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U41">
     <sortCondition ref="B2:B41"/>
   </sortState>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0026868-84F9-46AD-B2EB-ADC769583FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C44AE2-2D56-4484-B164-6229FC608956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="250">
   <si>
     <t>Week</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>[Key HW_10]</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN</t>
+  </si>
+  <si>
+    <t>5h3t=c+v</t>
+  </si>
+  <si>
+    <t>lecture_passcode</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1342,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1393,6 +1402,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1749,11 +1759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,17 +1778,17 @@
     <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.85546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="31.42578125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="132" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1">
+    <row r="1" spans="1:20" s="24" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1816,28 +1826,31 @@
         <v>75</v>
       </c>
       <c r="M1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1871,17 +1884,23 @@
       <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1894,17 +1913,17 @@
       <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1917,17 +1936,17 @@
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -1941,12 +1960,12 @@
       <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" s="26" customFormat="1">
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" s="26" customFormat="1">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -1980,29 +1999,29 @@
       <c r="K6" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="Q6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="R6" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="S6" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="T6" s="26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="26" customFormat="1">
+    <row r="7" spans="1:20" s="26" customFormat="1">
       <c r="A7" s="26">
         <v>2</v>
       </c>
@@ -2016,29 +2035,29 @@
       <c r="F7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="P7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="Q7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="R7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="T7" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="26" customFormat="1">
+    <row r="8" spans="1:20" s="26" customFormat="1">
       <c r="A8" s="26">
         <v>2</v>
       </c>
@@ -2052,26 +2071,26 @@
       <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="N8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="O8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="Q8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="R8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="S8" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="26" customFormat="1">
+    <row r="9" spans="1:20" s="26" customFormat="1">
       <c r="A9" s="26">
         <v>2</v>
       </c>
@@ -2085,14 +2104,14 @@
       <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="O9" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="31" customFormat="1">
+    <row r="10" spans="1:20" s="31" customFormat="1">
       <c r="A10" s="31">
         <v>2</v>
       </c>
@@ -2107,7 +2126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -2142,29 +2161,30 @@
         <v>78</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="O11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="P11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="R11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -2185,29 +2205,30 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="P12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="R12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="S12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="19">
         <v>3</v>
       </c>
@@ -2228,29 +2249,30 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="P13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="R13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="19">
         <v>3</v>
       </c>
@@ -2265,21 +2287,22 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="13" customFormat="1">
+    <row r="15" spans="1:20" s="13" customFormat="1">
       <c r="A15" s="21">
         <v>3</v>
       </c>
@@ -2294,20 +2317,21 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" s="26" customFormat="1">
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" s="26" customFormat="1">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2342,29 +2366,30 @@
         <v>107</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="T16" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="26" customFormat="1">
+    <row r="17" spans="1:20" s="26" customFormat="1">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2385,29 +2410,30 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="O17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="R17" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="S17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="26" t="s">
+      <c r="T17" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="26" customFormat="1">
+    <row r="18" spans="1:20" s="26" customFormat="1">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2422,27 +2448,28 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="O18" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="R18" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="S18" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="T18" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="26" customFormat="1">
+    <row r="19" spans="1:20" s="26" customFormat="1">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2460,15 +2487,16 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="R19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:19" s="31" customFormat="1">
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:20" s="31" customFormat="1">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -2486,15 +2514,16 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="R20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="37"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="17">
         <v>5</v>
       </c>
@@ -2529,29 +2558,30 @@
         <v>121</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="17"/>
+      <c r="N21" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="O21" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="P21" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="Q21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="R21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" s="19">
         <v>5</v>
       </c>
@@ -2566,27 +2596,28 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" s="19">
         <v>5</v>
       </c>
@@ -2604,15 +2635,16 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" s="13" customFormat="1">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" s="13" customFormat="1">
       <c r="A24" s="21">
         <v>5</v>
       </c>
@@ -2630,11 +2662,12 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1">
+    <row r="25" spans="1:20" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -2668,75 +2701,75 @@
       <c r="K25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1">
+    <row r="26" spans="1:20" s="2" customFormat="1">
       <c r="A26" s="2">
         <v>6</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1">
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" s="2" customFormat="1">
       <c r="A27" s="2">
         <v>6</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="3" customFormat="1">
+    <row r="28" spans="1:20" s="3" customFormat="1">
       <c r="A28" s="3">
         <v>6</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="17" customFormat="1">
+    <row r="29" spans="1:20" s="17" customFormat="1">
       <c r="A29" s="17">
         <v>7</v>
       </c>
@@ -2770,71 +2803,71 @@
       <c r="K29" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="N29" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="O29" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="Q29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="R29" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="S29" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="19" customFormat="1">
+    <row r="30" spans="1:20" s="19" customFormat="1">
       <c r="A30" s="5">
         <v>7</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="M30" s="19" t="s">
+      <c r="N30" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="O30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="Q30" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="R30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="19" customFormat="1">
+    <row r="31" spans="1:20" s="19" customFormat="1">
       <c r="A31" s="5">
         <v>7</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="P31" s="19" t="s">
+      <c r="Q31" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="R31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="S31" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="21" customFormat="1">
+    <row r="32" spans="1:20" s="21" customFormat="1">
       <c r="A32" s="21">
         <v>7</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="P32" s="21" t="s">
+      <c r="Q32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="Q32" s="21" t="s">
+      <c r="R32" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="2" customFormat="1">
+    <row r="33" spans="1:20" s="2" customFormat="1">
       <c r="A33" s="2">
         <v>8</v>
       </c>
@@ -2866,22 +2899,22 @@
       <c r="K33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="40"/>
+      <c r="Q33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:19" s="2" customFormat="1">
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -2895,18 +2928,18 @@
       <c r="F34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="R34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1">
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>8</v>
       </c>
@@ -2920,11 +2953,11 @@
       <c r="F35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="6" customFormat="1">
+    <row r="36" spans="1:20" s="6" customFormat="1">
       <c r="A36" s="6">
         <v>8</v>
       </c>
@@ -2939,7 +2972,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="44" customFormat="1">
+    <row r="37" spans="1:20" s="44" customFormat="1">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -2972,22 +3005,23 @@
         <v>179</v>
       </c>
       <c r="L37" s="17"/>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="17"/>
+      <c r="N37" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="O37" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17" t="s">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="Q37" s="17" t="s">
+      <c r="R37" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="R37" s="17"/>
-    </row>
-    <row r="38" spans="1:19" s="13" customFormat="1">
+      <c r="S37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" s="13" customFormat="1">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -3001,13 +3035,14 @@
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" s="26" customFormat="1">
+      <c r="S38" s="21"/>
+    </row>
+    <row r="39" spans="1:20" s="26" customFormat="1">
       <c r="A39" s="6">
         <v>10</v>
       </c>
@@ -3029,18 +3064,19 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="6" t="s">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="R39" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6" t="s">
+      <c r="S39" s="6"/>
+      <c r="T39" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="26" customFormat="1">
+    <row r="40" spans="1:20" s="26" customFormat="1">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -3058,11 +3094,12 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2" t="s">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:20">
       <c r="A41" s="17">
         <v>11</v>
       </c>
@@ -3084,20 +3121,22 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="17" t="s">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O2" r:id="rId2" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="R6" r:id="rId4" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O7" r:id="rId5" xr:uid="{093D27B3-CEE9-47CA-B053-E07A545793E3}"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="S6" r:id="rId4" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P7" r:id="rId5" xr:uid="{093D27B3-CEE9-47CA-B053-E07A545793E3}"/>
+    <hyperlink ref="L2" r:id="rId6" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN__;!!C5qS4YX3!Uo3prRJPSkI4Au3h03Z1i5vdFzROovW3grYWk6TnwOkzDTsniPGqZ-GK9TjbmbAJ$" xr:uid="{667FBFEE-50D3-435F-A8AB-A88F480A5BB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3105,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3709,9 +3748,12 @@
       <c r="B42" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="C42" s="45" t="s">
+        <v>247</v>
+      </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">[lecture1]: </v>
+        <v>[lecture1]: https://uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3998,6 +4040,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C42" r:id="rId2" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN__;!!C5qS4YX3!Uo3prRJPSkI4Au3h03Z1i5vdFzROovW3grYWk6TnwOkzDTsniPGqZ-GK9TjbmbAJ$" xr:uid="{C49C3232-EA7D-41D1-9E97-A77042A9BC30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4007,7 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C44AE2-2D56-4484-B164-6229FC608956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B3B58-1579-4B26-8557-9BDB99DA56B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="260">
   <si>
     <t>Week</t>
   </si>
@@ -784,6 +784,36 @@
   </si>
   <si>
     <t>lecture_passcode</t>
+  </si>
+  <si>
+    <t>Homework 2</t>
+  </si>
+  <si>
+    <t>Homework 3</t>
+  </si>
+  <si>
+    <t>Homework 4</t>
+  </si>
+  <si>
+    <t>Homework 5</t>
+  </si>
+  <si>
+    <t>Homework 6</t>
+  </si>
+  <si>
+    <t>Homework 7</t>
+  </si>
+  <si>
+    <t>Homework 8</t>
+  </si>
+  <si>
+    <t>Homework 9</t>
+  </si>
+  <si>
+    <t>hw1.Rmd</t>
+  </si>
+  <si>
+    <t>&lt;a href="C:/Users/jnese/Desktop/BRT/Teaching/Intro-Data-Science/c1-intro-fall-2021/homeworks/hw1.Rmd" download&gt;Homework 1&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1761,31 +1791,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="132" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.06640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="24" customFormat="1">
@@ -1946,7 +1976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2105,10 +2135,10 @@
         <v>41</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>91</v>
+        <v>259</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="31" customFormat="1">
@@ -2289,7 +2319,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>95</v>
@@ -2319,7 +2349,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>96</v>
@@ -2450,7 +2480,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>111</v>
@@ -2598,7 +2628,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>123</v>
@@ -2763,7 +2793,7 @@
       </c>
       <c r="B28" s="36"/>
       <c r="N28" s="3" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>141</v>
@@ -2804,7 +2834,7 @@
         <v>147</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>150</v>
@@ -2825,7 +2855,7 @@
       </c>
       <c r="B30" s="20"/>
       <c r="N30" s="19" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>151</v>
@@ -2900,7 +2930,7 @@
         <v>167</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>169</v>
@@ -3007,7 +3037,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O37" s="17" t="s">
         <v>181</v>
@@ -3022,7 +3052,9 @@
       <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:20" s="13" customFormat="1">
-      <c r="A38" s="21"/>
+      <c r="A38" s="21">
+        <v>9</v>
+      </c>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -3148,12 +3180,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4054,19 +4086,19 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4772,9 +4804,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3B3B58-1579-4B26-8557-9BDB99DA56B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464DDC5-E9F9-4BB8-9AA6-F1CACF80E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="259">
   <si>
     <t>Week</t>
   </si>
@@ -745,9 +745,6 @@
   </si>
   <si>
     <t>./homeworks/hw-10_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/</t>
   </si>
   <si>
     <t>[Key HW_1]</t>
@@ -1179,7 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,8 +1402,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1433,6 +1428,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1791,9 +1788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -1818,65 +1815,65 @@
     <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="24" customFormat="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20" s="44" customFormat="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="M1" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="44" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1914,11 +1911,11 @@
       <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" s="43" t="s">
         <v>247</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>11</v>
@@ -1995,164 +1992,164 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:20" s="26" customFormat="1">
-      <c r="A6" s="26">
+    <row r="6" spans="1:20" s="24" customFormat="1">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>44475</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="T6" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="26" customFormat="1">
-      <c r="A7" s="26">
+    <row r="7" spans="1:20" s="24" customFormat="1">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="28"/>
+      <c r="D7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="26" customFormat="1">
-      <c r="A8" s="26">
+    <row r="8" spans="1:20" s="24" customFormat="1">
+      <c r="A8" s="24">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="28"/>
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="26" customFormat="1">
-      <c r="A9" s="26">
+    <row r="9" spans="1:20" s="24" customFormat="1">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="28"/>
+      <c r="D9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="P9" s="29" t="s">
+      <c r="N9" s="24" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="31" customFormat="1">
-      <c r="A10" s="31">
+      <c r="P9" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="29" customFormat="1">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="30"/>
+      <c r="D10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2319,7 +2316,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>95</v>
@@ -2349,7 +2346,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>96</v>
@@ -2361,11 +2358,11 @@
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="26" customFormat="1">
+    <row r="16" spans="1:20" s="24" customFormat="1">
       <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2380,16 +2377,16 @@
       <c r="F16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2415,15 +2412,15 @@
       <c r="S16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="26" t="s">
+      <c r="T16" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="26" customFormat="1">
+    <row r="17" spans="1:20" s="24" customFormat="1">
       <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>100</v>
@@ -2444,7 +2441,7 @@
       <c r="N17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="33" t="s">
         <v>110</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -2453,21 +2450,21 @@
       <c r="Q17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="S17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="T17" s="26" t="s">
+      <c r="T17" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="26" customFormat="1">
+    <row r="18" spans="1:20" s="24" customFormat="1">
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2480,30 +2477,30 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O18" s="33" t="s">
         <v>111</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="26" t="s">
+      <c r="T18" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="26" customFormat="1">
+    <row r="19" spans="1:20" s="24" customFormat="1">
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2521,16 +2518,16 @@
       <c r="Q19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="S19" s="29"/>
-    </row>
-    <row r="20" spans="1:20" s="31" customFormat="1">
+      <c r="S19" s="27"/>
+    </row>
+    <row r="20" spans="1:20" s="29" customFormat="1">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2548,10 +2545,10 @@
       <c r="Q20" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="17">
@@ -2628,7 +2625,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>123</v>
@@ -2701,7 +2698,7 @@
       <c r="A25" s="1">
         <v>6</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="31">
         <v>44503</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2716,7 +2713,7 @@
       <c r="F25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2725,7 +2722,7 @@
       <c r="I25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2754,7 +2751,7 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="32"/>
       <c r="N26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2776,7 +2773,7 @@
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="32"/>
       <c r="N27" s="2" t="s">
         <v>129</v>
       </c>
@@ -2791,9 +2788,9 @@
       <c r="A28" s="3">
         <v>6</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="34"/>
       <c r="N28" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>141</v>
@@ -2834,7 +2831,7 @@
         <v>147</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>150</v>
@@ -2855,7 +2852,7 @@
       </c>
       <c r="B30" s="20"/>
       <c r="N30" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>151</v>
@@ -2901,7 +2898,7 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="32">
         <v>44517</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2916,26 +2913,26 @@
       <c r="F33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>167</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P33" s="40"/>
+      <c r="P33" s="38"/>
       <c r="Q33" s="1" t="s">
         <v>148</v>
       </c>
@@ -2948,7 +2945,7 @@
       <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="32"/>
       <c r="D34" s="2" t="s">
         <v>158</v>
       </c>
@@ -2973,7 +2970,7 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="32"/>
       <c r="D35" s="2" t="s">
         <v>156</v>
       </c>
@@ -2991,7 +2988,7 @@
       <c r="A36" s="6">
         <v>8</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="D36" s="6" t="s">
         <v>155</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="44" customFormat="1">
+    <row r="37" spans="1:20" s="42" customFormat="1">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -3021,14 +3018,14 @@
       <c r="F37" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="42" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>178</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K37" s="17" t="s">
@@ -3074,11 +3071,11 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="1:20" s="26" customFormat="1">
+    <row r="39" spans="1:20" s="24" customFormat="1">
       <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="36">
         <v>44531</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -3108,11 +3105,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="26" customFormat="1">
+    <row r="40" spans="1:20" s="24" customFormat="1">
       <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3237,7 +3234,7 @@
       <c r="B4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D4" t="str">
@@ -3780,8 +3777,8 @@
       <c r="B42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>247</v>
+      <c r="C42" s="43" t="s">
+        <v>246</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -4082,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -4143,20 +4140,17 @@
       <c r="C2" s="16">
         <v>44475</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="37">
         <v>44482</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="H2" s="12">
         <v>10</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>228</v>
@@ -4169,23 +4163,20 @@
       <c r="B3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="37">
         <v>44482</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="37">
         <v>44489</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="H3" s="12">
         <v>10</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>230</v>
@@ -4198,23 +4189,20 @@
       <c r="B4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>44482</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="37">
         <v>44489</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H4" s="12">
         <v>10</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>229</v>
@@ -4227,23 +4215,20 @@
       <c r="B5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="37">
         <v>44489</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>44496</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>231</v>
@@ -4256,23 +4241,20 @@
       <c r="B6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <v>44496</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>44503</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H6" s="12">
         <v>10</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>232</v>
@@ -4285,24 +4267,21 @@
       <c r="B7" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>44503</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>44510</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="12">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>233</v>
@@ -4315,17 +4294,14 @@
       <c r="B8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>44510</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <v>44517</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="12">
@@ -4342,24 +4318,21 @@
       <c r="B9" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>44510</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="37">
         <v>44517</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12">
         <v>10</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>234</v>
@@ -4372,24 +4345,21 @@
       <c r="B10" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>44517</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="37">
         <v>44524</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="12">
         <v>10</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>235</v>
@@ -4402,23 +4372,20 @@
       <c r="B11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>44524</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>44531</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="H11" s="12">
         <v>10</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>236</v>
@@ -4440,7 +4407,7 @@
       <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -4466,7 +4433,7 @@
       <c r="E13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="41" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -4486,7 +4453,7 @@
       <c r="C14" s="16">
         <v>44475</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>44482</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -4512,7 +4479,7 @@
       <c r="C15" s="16">
         <v>44475</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>44482</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -4538,7 +4505,7 @@
       <c r="C16" s="16">
         <v>44475</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>44482</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -4561,10 +4528,10 @@
       <c r="B17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>44482</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>44489</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4600,10 +4567,10 @@
       <c r="B18" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>44482</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>44489</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4626,10 +4593,10 @@
       <c r="B19" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>44482</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>44489</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4652,10 +4619,10 @@
       <c r="B20" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>44489</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="37">
         <v>44496</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -4678,10 +4645,10 @@
       <c r="B21" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>44489</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="37">
         <v>44496</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4704,7 +4671,7 @@
       <c r="C22" s="9">
         <v>44468</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>44489</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -4721,7 +4688,7 @@
       <c r="C23" s="9">
         <v>44469</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="37">
         <v>44517</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -4738,7 +4705,7 @@
       <c r="C24" s="9">
         <v>44470</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="37">
         <v>44524</v>
       </c>
       <c r="E24" s="12" t="s">

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464DDC5-E9F9-4BB8-9AA6-F1CACF80E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744B2AF-103F-4CCD-A0EE-4F2B613352E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="253">
   <si>
     <t>Week</t>
   </si>
@@ -177,9 +177,6 @@
     <t>[`{rio}` vignette]</t>
   </si>
   <si>
-    <t>[Homework 1]</t>
-  </si>
-  <si>
     <t>https://rstudio.cloud/learn/primers/1.1</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>[lecture5]</t>
   </si>
   <si>
-    <t>[Homework 5]</t>
-  </si>
-  <si>
     <t>[hw5]</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>[lecture6]</t>
   </si>
   <si>
-    <t>[Homework 6]</t>
-  </si>
-  <si>
     <t>[gitkraken]</t>
   </si>
   <si>
@@ -480,12 +471,6 @@
     <t>[lecture7]</t>
   </si>
   <si>
-    <t>[Homework 7]</t>
-  </si>
-  <si>
-    <t>[Homework 8]</t>
-  </si>
-  <si>
     <t>[hw7]</t>
   </si>
   <si>
@@ -540,9 +525,6 @@
     <t>[lecture8]</t>
   </si>
   <si>
-    <t>[Homework 9]</t>
-  </si>
-  <si>
     <t>[hw9]</t>
   </si>
   <si>
@@ -648,12 +630,6 @@
     <t>http://milton-the-cat.rocks/learnr/r/r_getting_started/#section-a-quick-tour-of-r-studio</t>
   </si>
   <si>
-    <t>[Homework 2]</t>
-  </si>
-  <si>
-    <t>[Homework 3]</t>
-  </si>
-  <si>
     <t>Date Assigned</t>
   </si>
   <si>
@@ -810,7 +786,13 @@
     <t>hw1.Rmd</t>
   </si>
   <si>
-    <t>&lt;a href="C:/Users/jnese/Desktop/BRT/Teaching/Intro-Data-Science/c1-intro-fall-2021/homeworks/hw1.Rmd" download&gt;Homework 1&lt;/a&gt;</t>
+    <t>https://uoregon.zoom.us/rec/share/T11alJAG9VkZhaFvqqODAE0aqLF3yKsnJ_J_nYhUjd-BzknM668e60LgsEf73UlE.trXOEZJ0DBbFpRT6</t>
+  </si>
+  <si>
+    <t>+dvm1Bij</t>
+  </si>
+  <si>
+    <t>Homework 1</t>
   </si>
 </sst>
 </file>
@@ -1788,31 +1770,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.06640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="7" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1832,28 +1814,28 @@
         <v>27</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N1" s="44" t="s">
         <v>5</v>
@@ -1868,13 +1850,13 @@
         <v>7</v>
       </c>
       <c r="R1" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="44" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1891,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -1900,31 +1882,31 @@
         <v>19</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1935,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
@@ -1944,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>17</v>
@@ -1958,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
@@ -1967,13 +1949,13 @@
         <v>14</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -1982,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>24</v>
@@ -2015,37 +1997,43 @@
         <v>19</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1">
@@ -2057,7 +2045,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>39</v>
@@ -2066,22 +2054,22 @@
         <v>34</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="T7" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1">
@@ -2093,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>40</v>
@@ -2102,16 +2090,16 @@
         <v>36</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S8" s="24" t="s">
         <v>18</v>
@@ -2132,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="29" customFormat="1">
@@ -2161,54 +2149,54 @@
         <v>44482</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2218,13 +2206,13 @@
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -2234,25 +2222,25 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2262,13 +2250,13 @@
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -2278,25 +2266,25 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2316,17 +2304,20 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="13" customFormat="1">
@@ -2346,14 +2337,14 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -2366,54 +2357,54 @@
         <v>44489</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="24" customFormat="1">
@@ -2423,13 +2414,13 @@
       <c r="B17" s="32"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2439,25 +2430,25 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="24" customFormat="1">
@@ -2477,23 +2468,23 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="24" customFormat="1">
@@ -2516,10 +2507,10 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S19" s="27"/>
     </row>
@@ -2543,10 +2534,10 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S20" s="35"/>
     </row>
@@ -2558,54 +2549,54 @@
         <v>44496</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>115</v>
-      </c>
       <c r="E21" s="17" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2625,23 +2616,23 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2664,10 +2655,10 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S23" s="4"/>
     </row>
@@ -2691,7 +2682,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1">
@@ -2702,49 +2693,49 @@
         <v>44503</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1">
@@ -2753,19 +2744,19 @@
       </c>
       <c r="B26" s="32"/>
       <c r="N26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S26" s="6"/>
     </row>
@@ -2775,13 +2766,13 @@
       </c>
       <c r="B27" s="32"/>
       <c r="N27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="3" customFormat="1">
@@ -2790,10 +2781,10 @@
       </c>
       <c r="B28" s="34"/>
       <c r="N28" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="17" customFormat="1">
@@ -2804,46 +2795,46 @@
         <v>44510</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="19" customFormat="1">
@@ -2852,19 +2843,19 @@
       </c>
       <c r="B30" s="20"/>
       <c r="N30" s="19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="19" customFormat="1">
@@ -2873,13 +2864,13 @@
       </c>
       <c r="B31" s="20"/>
       <c r="Q31" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1">
@@ -2888,10 +2879,10 @@
       </c>
       <c r="B32" s="22"/>
       <c r="Q32" s="21" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="R32" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1">
@@ -2902,42 +2893,42 @@
         <v>44517</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="1" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S33" s="6"/>
     </row>
@@ -2947,22 +2938,22 @@
       </c>
       <c r="B34" s="32"/>
       <c r="D34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S34" s="6"/>
     </row>
@@ -2972,16 +2963,16 @@
       </c>
       <c r="B35" s="32"/>
       <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="Q35" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="6" customFormat="1">
@@ -2990,13 +2981,13 @@
       </c>
       <c r="B36" s="36"/>
       <c r="D36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="42" customFormat="1">
@@ -3007,44 +2998,44 @@
         <v>44524</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S37" s="17"/>
     </row>
@@ -3066,7 +3057,7 @@
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -3079,7 +3070,7 @@
         <v>44531</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3095,14 +3086,14 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="24" customFormat="1">
@@ -3125,7 +3116,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3136,7 +3127,7 @@
         <v>44538</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -3163,9 +3154,10 @@
     <hyperlink ref="S6" r:id="rId4" location="section-a-quick-tour-of-r-studio" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="P7" r:id="rId5" xr:uid="{093D27B3-CEE9-47CA-B053-E07A545793E3}"/>
     <hyperlink ref="L2" r:id="rId6" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN__;!!C5qS4YX3!Uo3prRJPSkI4Au3h03Z1i5vdFzROovW3grYWk6TnwOkzDTsniPGqZ-GK9TjbmbAJ$" xr:uid="{667FBFEE-50D3-435F-A8AB-A88F480A5BB0}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{6E06D3EB-ABFE-4E58-AB0B-5C82FB96627D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3177,35 +3169,35 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(B2, ": ", C2, )</f>
@@ -3214,13 +3206,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D64" si="0">CONCATENATE(B3, ": ", C3, )</f>
@@ -3229,13 +3221,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3244,13 +3236,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3259,13 +3251,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3274,13 +3266,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3289,13 +3281,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3304,13 +3296,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3319,13 +3311,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3334,10 +3326,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3346,10 +3338,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3358,10 +3350,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3370,10 +3362,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3382,10 +3374,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3394,10 +3386,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -3406,10 +3398,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3418,10 +3410,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3430,10 +3422,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3442,13 +3434,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -3457,13 +3449,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3472,13 +3464,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3487,7 +3479,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>44</v>
@@ -3502,10 +3494,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>24</v>
@@ -3517,13 +3509,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -3532,13 +3524,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -3547,13 +3539,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -3562,13 +3554,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3577,13 +3569,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3592,13 +3584,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3607,10 +3599,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>40</v>
@@ -3622,13 +3614,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -3637,13 +3629,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -3652,10 +3644,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>22</v>
@@ -3667,13 +3659,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -3682,10 +3674,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>23</v>
@@ -3697,10 +3689,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>39</v>
@@ -3712,7 +3704,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>45</v>
@@ -3727,10 +3719,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>21</v>
@@ -3742,13 +3734,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -3757,7 +3749,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>43</v>
@@ -3772,13 +3764,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -3787,10 +3779,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -3799,10 +3791,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -3811,10 +3803,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -3823,10 +3815,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -3835,10 +3827,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -3847,10 +3839,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -3859,10 +3851,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -3871,10 +3863,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -3883,10 +3875,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" t="str">
@@ -3896,10 +3888,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -3908,10 +3900,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -3920,10 +3912,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -3932,10 +3924,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -3944,10 +3936,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -3956,10 +3948,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -3968,10 +3960,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -3980,10 +3972,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -3992,10 +3984,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -4004,13 +3996,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -4019,13 +4011,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -4034,13 +4026,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -4049,13 +4041,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -4080,22 +4072,22 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4103,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -4118,16 +4110,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1">
@@ -4135,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C2" s="16">
         <v>44475</v>
@@ -4143,17 +4135,20 @@
       <c r="D2" s="37">
         <v>44482</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>258</v>
+      <c r="E2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="H2" s="12">
         <v>10</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1">
@@ -4161,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C3" s="37">
         <v>44482</v>
@@ -4170,16 +4165,16 @@
         <v>44489</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H3" s="12">
         <v>10</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
@@ -4187,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C4" s="37">
         <v>44482</v>
@@ -4196,16 +4191,16 @@
         <v>44489</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H4" s="12">
         <v>10</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">
@@ -4213,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C5" s="37">
         <v>44489</v>
@@ -4222,16 +4217,16 @@
         <v>44496</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
@@ -4239,7 +4234,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C6" s="37">
         <v>44496</v>
@@ -4248,16 +4243,16 @@
         <v>44503</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H6" s="12">
         <v>10</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
@@ -4265,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C7" s="37">
         <v>44503</v>
@@ -4274,17 +4269,17 @@
         <v>44510</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="12">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
@@ -4292,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C8" s="37">
         <v>44510</v>
@@ -4301,14 +4296,14 @@
         <v>44517</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="12">
         <v>10</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1">
@@ -4316,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C9" s="37">
         <v>44510</v>
@@ -4325,17 +4320,17 @@
         <v>44517</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12">
         <v>10</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
@@ -4343,7 +4338,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C10" s="37">
         <v>44517</v>
@@ -4352,17 +4347,17 @@
         <v>44524</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="12">
         <v>10</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1">
@@ -4370,7 +4365,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C11" s="37">
         <v>44524</v>
@@ -4379,16 +4374,16 @@
         <v>44531</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H11" s="12">
         <v>10</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1">
@@ -4396,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C12" s="16">
         <v>44468</v>
@@ -4411,7 +4406,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H12" s="12">
         <v>10</v>
@@ -4422,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C13" s="16">
         <v>44468</v>
@@ -4437,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H13" s="12">
         <v>10</v>
@@ -4448,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C14" s="16">
         <v>44475</v>
@@ -4460,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H14" s="12">
         <v>10</v>
@@ -4474,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C15" s="16">
         <v>44475</v>
@@ -4486,10 +4481,10 @@
         <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H15" s="12">
         <v>10</v>
@@ -4500,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C16" s="16">
         <v>44475</v>
@@ -4512,10 +4507,10 @@
         <v>36</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H16" s="12">
         <v>10</v>
@@ -4526,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" s="37">
         <v>44482</v>
@@ -4535,13 +4530,13 @@
         <v>44489</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H17" s="12">
         <v>10</v>
@@ -4565,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="37">
         <v>44482</v>
@@ -4574,13 +4569,13 @@
         <v>44489</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H18" s="12">
         <v>10</v>
@@ -4591,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C19" s="37">
         <v>44482</v>
@@ -4600,13 +4595,13 @@
         <v>44489</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H19" s="12">
         <v>10</v>
@@ -4617,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C20" s="37">
         <v>44489</v>
@@ -4626,13 +4621,13 @@
         <v>44496</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H20" s="12">
         <v>10</v>
@@ -4643,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C21" s="37">
         <v>44489</v>
@@ -4652,13 +4647,13 @@
         <v>44496</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H21" s="12">
         <v>10</v>
@@ -4666,7 +4661,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="B22" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C22" s="9">
         <v>44468</v>
@@ -4675,7 +4670,7 @@
         <v>44489</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H22" s="12">
         <v>15</v>
@@ -4683,7 +4678,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="B23" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C23" s="9">
         <v>44469</v>
@@ -4692,7 +4687,7 @@
         <v>44517</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H23" s="12">
         <v>25</v>
@@ -4700,7 +4695,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="B24" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C24" s="9">
         <v>44470</v>
@@ -4709,7 +4704,7 @@
         <v>44524</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H24" s="12">
         <v>25</v>
@@ -4717,7 +4712,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="B25" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="9">
         <v>44471</v>
@@ -4726,7 +4721,7 @@
         <v>44538</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H25" s="12">
         <v>25</v>
@@ -4734,7 +4729,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="B26" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C26" s="9">
         <v>44472</v>
@@ -4743,7 +4738,7 @@
         <v>44545</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H26" s="12">
         <v>110</v>
@@ -4771,9 +4766,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744B2AF-103F-4CCD-A0EE-4F2B613352E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC2FC2-2D37-48DE-BEB6-17AC1D22AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="255">
   <si>
     <t>Week</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>Homework 1</t>
+  </si>
+  <si>
+    <t>hw2-key.pdf</t>
+  </si>
+  <si>
+    <t>hw3.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1770,9 +1776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2309,7 +2315,9 @@
       <c r="O14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="P14" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="Q14" s="7" t="s">
         <v>252</v>
       </c>
@@ -2342,7 +2350,9 @@
       <c r="O15" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="21"/>
+      <c r="P15" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="Q15" s="21" t="s">
         <v>61</v>
       </c>
@@ -4071,8 +4081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4167,6 +4177,9 @@
       <c r="E3" s="5" t="s">
         <v>241</v>
       </c>
+      <c r="F3" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="H3" s="12">
         <v>10</v>
       </c>
@@ -4192,6 +4205,9 @@
       </c>
       <c r="E4" s="5" t="s">
         <v>242</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="H4" s="12">
         <v>10</v>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC2FC2-2D37-48DE-BEB6-17AC1D22AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67054E96-3BF8-4D79-8DDC-D21160D51A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="249">
   <si>
     <t>Week</t>
   </si>
@@ -696,60 +696,6 @@
     <t>Key HW_7</t>
   </si>
   <si>
-    <t>./homeworks/hw-1_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-3_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-2_key.pdf</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-4_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-5_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-6_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-8_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-9_key.html</t>
-  </si>
-  <si>
-    <t>./homeworks/hw-10_key.html</t>
-  </si>
-  <si>
-    <t>[Key HW_1]</t>
-  </si>
-  <si>
-    <t>[Key HW_2]</t>
-  </si>
-  <si>
-    <t>[Key HW_3]</t>
-  </si>
-  <si>
-    <t>[Key HW_4]</t>
-  </si>
-  <si>
-    <t>[Key HW_5]</t>
-  </si>
-  <si>
-    <t>[Key HW_6]</t>
-  </si>
-  <si>
-    <t>[Key HW_8]</t>
-  </si>
-  <si>
-    <t>[Key HW_9]</t>
-  </si>
-  <si>
-    <t>[Key HW_10]</t>
-  </si>
-  <si>
     <t>https://uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN</t>
   </si>
   <si>
@@ -799,6 +745,42 @@
   </si>
   <si>
     <t>hw3.Rmd</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/UBDZ2TI-x3IIgM1A_Kt76uQ0X-VCzW6MW3h2hTcegXr6ZJYHddwl5nmZu5G7ugk.OcIwQeM9mwbqwzBP</t>
+  </si>
+  <si>
+    <t>3qZjw4?b</t>
+  </si>
+  <si>
+    <t>Key HW_1</t>
+  </si>
+  <si>
+    <t>Key HW_2</t>
+  </si>
+  <si>
+    <t>Key HW_3</t>
+  </si>
+  <si>
+    <t>Key HW_4</t>
+  </si>
+  <si>
+    <t>Key HW_5</t>
+  </si>
+  <si>
+    <t>Key HW_6</t>
+  </si>
+  <si>
+    <t>Key HW_8</t>
+  </si>
+  <si>
+    <t>Key HW_9</t>
+  </si>
+  <si>
+    <t>Key HW_10</t>
+  </si>
+  <si>
+    <t>hw1-key.html</t>
   </si>
 </sst>
 </file>
@@ -1776,31 +1758,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1841,7 +1823,7 @@
         <v>74</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="N1" s="44" t="s">
         <v>5</v>
@@ -1900,10 +1882,10 @@
         <v>75</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>11</v>
@@ -1961,7 +1943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2015,10 +1997,10 @@
         <v>76</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>32</v>
@@ -2126,10 +2108,10 @@
         <v>41</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="29" customFormat="1">
@@ -2181,8 +2163,12 @@
       <c r="K11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="L11" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" t="s">
+        <v>238</v>
+      </c>
       <c r="N11" s="17" t="s">
         <v>56</v>
       </c>
@@ -2310,22 +2296,22 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>94</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>90</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="13" customFormat="1">
@@ -2345,13 +2331,13 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>95</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="21" t="s">
         <v>61</v>
@@ -2478,7 +2464,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>110</v>
@@ -2517,7 +2503,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>94</v>
@@ -2544,7 +2530,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="R20" s="35" t="s">
         <v>95</v>
@@ -2626,7 +2612,7 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>121</v>
@@ -2763,7 +2749,7 @@
         <v>131</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>121</v>
@@ -2791,7 +2777,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="N28" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>138</v>
@@ -2832,7 +2818,7 @@
         <v>144</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>145</v>
@@ -2853,7 +2839,7 @@
       </c>
       <c r="B30" s="20"/>
       <c r="N30" s="19" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>146</v>
@@ -2889,7 +2875,7 @@
       </c>
       <c r="B32" s="22"/>
       <c r="Q32" s="21" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="R32" s="21" t="s">
         <v>138</v>
@@ -2928,14 +2914,14 @@
         <v>162</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>145</v>
@@ -2960,7 +2946,7 @@
         <v>209</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>146</v>
@@ -3042,7 +3028,7 @@
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="R37" s="17" t="s">
         <v>163</v>
@@ -3165,9 +3151,10 @@
     <hyperlink ref="P7" r:id="rId5" xr:uid="{093D27B3-CEE9-47CA-B053-E07A545793E3}"/>
     <hyperlink ref="L2" r:id="rId6" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN__;!!C5qS4YX3!Uo3prRJPSkI4Au3h03Z1i5vdFzROovW3grYWk6TnwOkzDTsniPGqZ-GK9TjbmbAJ$" xr:uid="{667FBFEE-50D3-435F-A8AB-A88F480A5BB0}"/>
     <hyperlink ref="L6" r:id="rId7" xr:uid="{6E06D3EB-ABFE-4E58-AB0B-5C82FB96627D}"/>
+    <hyperlink ref="L11" r:id="rId8" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/UBDZ2TI-x3IIgM1A_Kt76uQ0X-VCzW6MW3h2hTcegXr6ZJYHddwl5nmZu5G7ugk.OcIwQeM9mwbqwzBP__;!!C5qS4YX3!URWp5Z7DPUeEre-la1rVP6LYw2o3Yj56HqZCAvv5nE6QFkOiPuHZm1dpvFL2mvVA$" xr:uid="{FD219554-898A-44AE-8060-E8EDBA71597E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3179,12 +3166,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3780,7 +3767,7 @@
         <v>75</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -4081,23 +4068,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4146,19 +4133,19 @@
         <v>44482</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H2" s="12">
         <v>10</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1">
@@ -4175,19 +4162,16 @@
         <v>44489</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H3" s="12">
         <v>10</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
@@ -4204,19 +4188,16 @@
         <v>44489</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H4" s="12">
         <v>10</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">
@@ -4233,16 +4214,13 @@
         <v>44496</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
@@ -4259,16 +4237,13 @@
         <v>44503</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H6" s="12">
         <v>10</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
@@ -4285,17 +4260,14 @@
         <v>44510</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="12">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
@@ -4312,7 +4284,7 @@
         <v>44517</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="12">
@@ -4336,17 +4308,14 @@
         <v>44517</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12">
         <v>10</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
@@ -4363,17 +4332,14 @@
         <v>44524</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="12">
         <v>10</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1">
@@ -4396,10 +4362,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1">
@@ -4782,9 +4745,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67054E96-3BF8-4D79-8DDC-D21160D51A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC63C6-C9CE-44C1-8749-9FBDDE7827BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4068,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -4646,7 +4646,7 @@
         <v>44468</v>
       </c>
       <c r="D22" s="37">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>203</v>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC63C6-C9CE-44C1-8749-9FBDDE7827BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F629AF5-8F22-40E9-B263-30CCD0316F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="251">
   <si>
     <t>Week</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <t>hw1-key.html</t>
+  </si>
+  <si>
+    <t>&lt;a href=./slides/images/codecademy_complete.png&gt;(example)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>hw4.html</t>
   </si>
 </sst>
 </file>
@@ -1758,31 +1764,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1943,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2469,7 +2475,9 @@
       <c r="O18" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="Q18" s="2" t="s">
         <v>60</v>
       </c>
@@ -2508,7 +2516,9 @@
       <c r="R19" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="S19" s="27"/>
+      <c r="S19" s="27" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1">
       <c r="A20" s="3">
@@ -2535,7 +2545,9 @@
       <c r="R20" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="35" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="17">
@@ -2656,7 +2668,9 @@
       <c r="R23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="24" spans="1:20" s="13" customFormat="1">
       <c r="A24" s="21">
@@ -3166,12 +3180,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4068,23 +4082,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4216,6 +4230,9 @@
       <c r="E5" s="5" t="s">
         <v>225</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="H5" s="12">
         <v>10</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="H13" s="12">
         <v>10</v>
@@ -4489,7 +4506,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="H16" s="12">
         <v>10</v>
@@ -4580,7 +4597,7 @@
         <v>80</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="H19" s="12">
         <v>10</v>
@@ -4632,7 +4649,7 @@
         <v>112</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="H21" s="12">
         <v>10</v>
@@ -4745,9 +4762,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F629AF5-8F22-40E9-B263-30CCD0316F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71E8F5-5A2D-41C8-B6EB-C4102EDB07B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="253">
   <si>
     <t>Week</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>hw4.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/UJo0nztb761-8FMFCcoCBxFOAy6J8LEl1oapEnbyb2zL0M0jaoXNP7cCUXDhx5gT.Q7Nszz6nLruwGZDK</t>
+  </si>
+  <si>
+    <t>qFA703i&amp;</t>
   </si>
 </sst>
 </file>
@@ -1764,31 +1770,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1949,7 +1955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2385,8 +2391,12 @@
       <c r="K16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>98</v>
       </c>
@@ -3180,12 +3190,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4086,19 +4096,19 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4762,9 +4772,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71E8F5-5A2D-41C8-B6EB-C4102EDB07B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20968269-DCDB-478C-A951-CD0BCA6719AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="255">
   <si>
     <t>Week</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>qFA703i&amp;</t>
+  </si>
+  <si>
+    <t>hw2-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw3-key.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1770,9 +1776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -4092,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -4197,6 +4203,9 @@
       <c r="I3" s="12" t="s">
         <v>240</v>
       </c>
+      <c r="J3" s="12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
       <c r="A4" s="5">
@@ -4222,6 +4231,9 @@
       </c>
       <c r="I4" s="12" t="s">
         <v>241</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20968269-DCDB-478C-A951-CD0BCA6719AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E34E4C-973B-400F-BA9A-ED44F9DA9801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="256">
   <si>
     <t>Week</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>hw3-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw5.html</t>
   </si>
 </sst>
 </file>
@@ -1776,31 +1779,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1961,7 +1964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2645,7 +2648,9 @@
       <c r="O22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P22" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="Q22" s="19" t="s">
         <v>100</v>
       </c>
@@ -2784,7 +2789,9 @@
       <c r="R26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="27" spans="1:20" s="2" customFormat="1">
       <c r="A27" s="2">
@@ -3196,12 +3203,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4099,22 +4106,22 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4277,6 +4284,9 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>226</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="H6" s="12">
         <v>10</v>
@@ -4784,9 +4794,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E34E4C-973B-400F-BA9A-ED44F9DA9801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B2126-59DC-4FB0-94F0-93BFDFF091F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="258">
   <si>
     <t>Week</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>hw5.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/lJ6aezkgMgJCETs4D4InEN-D7je1IvyB5fvv-zOiBZ7iO3ylO6Nmy0q1Lhh7UUzL.tWqolLna7FqRAeUw</t>
+  </si>
+  <si>
+    <t>x&amp;89f6^s</t>
   </si>
 </sst>
 </file>
@@ -1779,31 +1785,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1964,7 +1970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2602,8 +2608,12 @@
       <c r="K21" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="L21" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="N21" s="17" t="s">
         <v>115</v>
       </c>
@@ -3189,9 +3199,10 @@
     <hyperlink ref="L2" r:id="rId6" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/BkwLGbyWQ1ivxNvsSXA8nJ8YMeg9bFPwCiaYgxh5gaKCC9YecpJyIP3JPcMtuumc.OOhx25fN1QWUv7KN__;!!C5qS4YX3!Uo3prRJPSkI4Au3h03Z1i5vdFzROovW3grYWk6TnwOkzDTsniPGqZ-GK9TjbmbAJ$" xr:uid="{667FBFEE-50D3-435F-A8AB-A88F480A5BB0}"/>
     <hyperlink ref="L6" r:id="rId7" xr:uid="{6E06D3EB-ABFE-4E58-AB0B-5C82FB96627D}"/>
     <hyperlink ref="L11" r:id="rId8" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/UBDZ2TI-x3IIgM1A_Kt76uQ0X-VCzW6MW3h2hTcegXr6ZJYHddwl5nmZu5G7ugk.OcIwQeM9mwbqwzBP__;!!C5qS4YX3!URWp5Z7DPUeEre-la1rVP6LYw2o3Yj56HqZCAvv5nE6QFkOiPuHZm1dpvFL2mvVA$" xr:uid="{FD219554-898A-44AE-8060-E8EDBA71597E}"/>
+    <hyperlink ref="L21" r:id="rId9" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/lJ6aezkgMgJCETs4D4InEN-D7je1IvyB5fvv-zOiBZ7iO3ylO6Nmy0q1Lhh7UUzL.tWqolLna7FqRAeUw__;!!C5qS4YX3!Uq92oYOX4sarh1e_cZYa-eNA47E59fGcXM_wGuOoh2WJpn6BAi1MvLWZbI-0sYoV$" xr:uid="{C6825204-3B07-480D-9DAC-4DB9887ADFC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3203,12 +3214,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4105,23 +4116,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4794,9 +4805,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B2126-59DC-4FB0-94F0-93BFDFF091F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55542639-8FA2-49CF-B883-F6C0604EDB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="260">
   <si>
     <t>Week</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t>x&amp;89f6^s</t>
+  </si>
+  <si>
+    <t>hw6.html</t>
+  </si>
+  <si>
+    <t>hw4-key.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1785,9 +1791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -2829,6 +2835,9 @@
       <c r="O28" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="P28" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="29" spans="1:20" s="17" customFormat="1">
       <c r="A29" s="17">
@@ -2926,6 +2935,9 @@
       </c>
       <c r="R32" s="21" t="s">
         <v>138</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1">
@@ -4116,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -4279,6 +4291,9 @@
       <c r="I5" s="12" t="s">
         <v>242</v>
       </c>
+      <c r="J5" s="12" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
       <c r="A6" s="5">
@@ -4321,6 +4336,9 @@
       </c>
       <c r="E7" s="5" t="s">
         <v>227</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="12">

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55542639-8FA2-49CF-B883-F6C0604EDB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59216E2-904A-4DBA-9543-E87717A84E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="262">
   <si>
     <t>Week</t>
   </si>
@@ -814,6 +814,12 @@
   </si>
   <si>
     <t>hw4-key.Rmd</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/7A-M9LMPzMsRU6a1FNPNYdpyeRS80g1WUwOnuqn8Ywb8OnSZTUBoAE0INQi9Qj16.RfuT5gmZJChMncLp</t>
+  </si>
+  <si>
+    <t>5l=.k&amp;DU</t>
   </si>
 </sst>
 </file>
@@ -1791,9 +1797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -2765,6 +2771,12 @@
       </c>
       <c r="K25" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>125</v>
@@ -4128,7 +4140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59216E2-904A-4DBA-9543-E87717A84E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7967F2-6510-4BCA-9E3D-25A888F896F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="263">
   <si>
     <t>Week</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>5l=.k&amp;DU</t>
+  </si>
+  <si>
+    <t>hw8.html</t>
   </si>
 </sst>
 </file>
@@ -1797,9 +1800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -2912,6 +2915,9 @@
       <c r="O30" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="P30" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="Q30" s="19" t="s">
         <v>126</v>
       </c>
@@ -3022,7 +3028,9 @@
       <c r="R34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="35" spans="1:20" s="2" customFormat="1">
       <c r="A35" s="2">

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7967F2-6510-4BCA-9E3D-25A888F896F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05216961-48FA-452F-BFD8-D6BC092DEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="265">
   <si>
     <t>Week</t>
   </si>
@@ -823,6 +823,12 @@
   </si>
   <si>
     <t>hw8.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/8EAOsqKx5OSRnoGCl4brFQrp40Gwr2I3aI_-QQWS4lts2fDgRsxNgI-fTSrytkCD.pFz6ErOjQ8RhrDcT</t>
+  </si>
+  <si>
+    <t>^tZ46E%?</t>
   </si>
 </sst>
 </file>
@@ -1800,9 +1806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -2887,6 +2893,12 @@
       </c>
       <c r="K29" s="17" t="s">
         <v>144</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="s">
+        <v>264</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>228</v>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05216961-48FA-452F-BFD8-D6BC092DEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DBEAF8-F18A-42BC-AF65-50E95DB06289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="269">
   <si>
     <t>Week</t>
   </si>
@@ -829,6 +829,18 @@
   </si>
   <si>
     <t>^tZ46E%?</t>
+  </si>
+  <si>
+    <t>hw5-key.Rmd</t>
+  </si>
+  <si>
+    <t>hw6-key.Rmd</t>
+  </si>
+  <si>
+    <t>./slides/w8_tidydata.html</t>
+  </si>
+  <si>
+    <t>hw9.html</t>
   </si>
 </sst>
 </file>
@@ -1804,33 +1816,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -1991,7 +2003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2970,7 +2982,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1">
+    <row r="33" spans="1:24" s="2" customFormat="1">
       <c r="A33" s="2">
         <v>8</v>
       </c>
@@ -2995,7 +3007,9 @@
       <c r="H33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="J33" s="24" t="s">
         <v>29</v>
       </c>
@@ -3008,7 +3022,9 @@
       <c r="O33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P33" s="38"/>
+      <c r="P33" s="38" t="s">
+        <v>268</v>
+      </c>
       <c r="Q33" s="1" t="s">
         <v>228</v>
       </c>
@@ -3017,7 +3033,7 @@
       </c>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1">
+    <row r="34" spans="1:24" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -3031,8 +3047,8 @@
       <c r="F34" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>209</v>
+      <c r="N34" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>229</v>
@@ -3044,7 +3060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1">
+    <row r="35" spans="1:24" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>8</v>
       </c>
@@ -3058,11 +3074,8 @@
       <c r="F35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q35" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="6" customFormat="1">
+    </row>
+    <row r="36" spans="1:24" s="6" customFormat="1">
       <c r="A36" s="6">
         <v>8</v>
       </c>
@@ -3077,7 +3090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="42" customFormat="1">
+    <row r="37" spans="1:24" s="42" customFormat="1">
       <c r="A37" s="17">
         <v>9</v>
       </c>
@@ -3124,9 +3137,11 @@
       <c r="R37" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="1:20" s="13" customFormat="1">
+      <c r="S37" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="13" customFormat="1">
       <c r="A38" s="21">
         <v>9</v>
       </c>
@@ -3140,16 +3155,18 @@
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+      <c r="N38" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="1:20" s="24" customFormat="1">
+    <row r="39" spans="1:24" s="24" customFormat="1">
       <c r="A39" s="6">
         <v>10</v>
       </c>
@@ -3183,53 +3200,86 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="24" customFormat="1">
-      <c r="A40" s="2">
+    <row r="40" spans="1:24" s="24" customFormat="1">
+      <c r="A40" s="6">
         <v>10</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="1:24" s="24" customFormat="1">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="17">
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="17">
         <v>11</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B42" s="18">
         <v>44538</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3258,12 +3308,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4161,22 +4211,22 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4352,6 +4402,9 @@
       <c r="I6" s="12" t="s">
         <v>243</v>
       </c>
+      <c r="J6" s="12" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
       <c r="A7" s="5">
@@ -4378,6 +4431,9 @@
       </c>
       <c r="I7" s="12" t="s">
         <v>244</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
@@ -4855,9 +4911,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DBEAF8-F18A-42BC-AF65-50E95DB06289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505918FB-4C56-45A0-BA34-EF0EC8F7FA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="271">
   <si>
     <t>Week</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>hw9.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uoregon.zoom.us/rec/share/RNPNqlA1ay-CfgKPSzt9fwvop0RM-PfysoF8pDxpCLuLa_tNxV5AHeUOnwO2X3cV.I-e0_W8MMDZ5Ere6 </t>
+  </si>
+  <si>
+    <t>.%+8?slH</t>
   </si>
 </sst>
 </file>
@@ -1818,31 +1824,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -2003,7 +2009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3015,6 +3021,12 @@
       </c>
       <c r="K33" s="1" t="s">
         <v>162</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>230</v>
@@ -3308,12 +3320,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4214,19 +4226,19 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4911,9 +4923,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505918FB-4C56-45A0-BA34-EF0EC8F7FA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE73FD-33F3-4F71-84C7-06EC516FA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="273">
   <si>
     <t>Week</t>
   </si>
@@ -847,6 +847,12 @@
   </si>
   <si>
     <t>.%+8?slH</t>
+  </si>
+  <si>
+    <t>hw8.Rmd</t>
+  </si>
+  <si>
+    <t>hw10.html</t>
   </si>
 </sst>
 </file>
@@ -1824,31 +1830,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -2009,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3142,7 +3148,9 @@
       <c r="O37" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="P37" s="17"/>
+      <c r="P37" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="Q37" s="17" t="s">
         <v>230</v>
       </c>
@@ -3207,7 +3215,9 @@
       <c r="R39" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S39" s="6"/>
+      <c r="S39" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="T39" s="6" t="s">
         <v>175</v>
       </c>
@@ -3320,12 +3330,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4223,22 +4233,22 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4488,6 +4498,9 @@
       <c r="E9" s="5" t="s">
         <v>229</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="12">
         <v>10</v>
@@ -4495,6 +4508,9 @@
       <c r="I9" s="12" t="s">
         <v>245</v>
       </c>
+      <c r="J9" s="12" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
       <c r="A10" s="5">
@@ -4512,6 +4528,9 @@
       <c r="E10" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="F10" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="12">
         <v>10</v>
@@ -4535,6 +4554,9 @@
       </c>
       <c r="E11" s="5" t="s">
         <v>166</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="H11" s="12">
         <v>10</v>
@@ -4923,9 +4945,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE73FD-33F3-4F71-84C7-06EC516FA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9150F-5C71-4503-8586-67F3B6E7438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="277">
   <si>
     <t>Week</t>
   </si>
@@ -853,6 +853,18 @@
   </si>
   <si>
     <t>hw10.html</t>
+  </si>
+  <si>
+    <t>./slides/w9_factors.html</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/zA0OvUikEY83SiXdfi5VInymEPnXZbnK24NNhGlIu6GjwrFhqM8SBpMFXk1UO7Sz.PFAAnJ8XOEPFt7JK</t>
+  </si>
+  <si>
+    <t>L#pwTj&amp;7</t>
+  </si>
+  <si>
+    <t>hw9-key.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1830,31 +1842,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -2015,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3133,15 +3145,21 @@
       <c r="H37" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="J37" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
+      <c r="L37" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="s">
+        <v>275</v>
+      </c>
       <c r="N37" s="17" t="s">
         <v>166</v>
       </c>
@@ -3330,12 +3348,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4232,23 +4250,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4537,6 +4555,9 @@
       </c>
       <c r="I10" s="12" t="s">
         <v>246</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1">
@@ -4945,9 +4966,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9150F-5C71-4503-8586-67F3B6E7438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DC034-BA34-447C-9D2F-9E9F10807685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -1847,26 +1847,26 @@
       <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="7"/>
+    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3348,12 +3348,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4251,22 +4251,22 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
-    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4884,7 +4884,7 @@
         <v>44469</v>
       </c>
       <c r="D23" s="37">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>204</v>
@@ -4901,7 +4901,7 @@
         <v>44470</v>
       </c>
       <c r="D24" s="37">
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>208</v>
@@ -4918,7 +4918,7 @@
         <v>44471</v>
       </c>
       <c r="D25" s="9">
-        <v>44538</v>
+        <v>44531</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>205</v>
@@ -4935,7 +4935,7 @@
         <v>44472</v>
       </c>
       <c r="D26" s="9">
-        <v>44545</v>
+        <v>44538</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>206</v>
@@ -4966,9 +4966,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/nopublish/schedule.xlsx
+++ b/docs/nopublish/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DC034-BA34-447C-9D2F-9E9F10807685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19606D0F-F27D-470F-9EB9-D5FE1010236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="280">
   <si>
     <t>Week</t>
   </si>
@@ -865,6 +865,15 @@
   </si>
   <si>
     <t>hw9-key.Rmd</t>
+  </si>
+  <si>
+    <t>[lectre10]</t>
+  </si>
+  <si>
+    <t>https://uoregon.zoom.us/rec/share/h2bV8zKms_MioslnwirAvhvd4IEWSx2T5ewmr6WDM-ZC7MQFAHr_wxao_9NEDYBN.RNxLwWRto2usXoX7</t>
+  </si>
+  <si>
+    <t>%6r7UXAT</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1432,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1484,6 +1493,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1842,31 +1852,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="59" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16.86328125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.265625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="31.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="17" width="36.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.3984375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="56.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="44" customFormat="1">
@@ -2027,7 +2037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="13" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="14.65" thickBot="1">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3217,13 +3227,18 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -3334,9 +3349,10 @@
     <hyperlink ref="L6" r:id="rId7" xr:uid="{6E06D3EB-ABFE-4E58-AB0B-5C82FB96627D}"/>
     <hyperlink ref="L11" r:id="rId8" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/UBDZ2TI-x3IIgM1A_Kt76uQ0X-VCzW6MW3h2hTcegXr6ZJYHddwl5nmZu5G7ugk.OcIwQeM9mwbqwzBP__;!!C5qS4YX3!URWp5Z7DPUeEre-la1rVP6LYw2o3Yj56HqZCAvv5nE6QFkOiPuHZm1dpvFL2mvVA$" xr:uid="{FD219554-898A-44AE-8060-E8EDBA71597E}"/>
     <hyperlink ref="L21" r:id="rId9" display="https://urldefense.com/v3/__https:/uoregon.zoom.us/rec/share/lJ6aezkgMgJCETs4D4InEN-D7je1IvyB5fvv-zOiBZ7iO3ylO6Nmy0q1Lhh7UUzL.tWqolLna7FqRAeUw__;!!C5qS4YX3!Uq92oYOX4sarh1e_cZYa-eNA47E59fGcXM_wGuOoh2WJpn6BAi1MvLWZbI-0sYoV$" xr:uid="{C6825204-3B07-480D-9DAC-4DB9887ADFC6}"/>
+    <hyperlink ref="L39" r:id="rId10" xr:uid="{F95C8C72-1A3B-4921-9F4C-087E029C898F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3348,12 +3364,12 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
+    <col min="2" max="2" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4250,23 +4266,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="47.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="9" max="9" width="10.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4966,9 +4982,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
